--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_42.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.08, 9.26)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_186</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -618,587 +618,550 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:02:09.380000', '0:02:14.380000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:01:06.020000', '0:01:08.980000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:34.560000', '0:00:36.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.18, 45.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
